--- a/Process Workflows/Stock_Reporting_processing/StockReportMasterFile.xlsx
+++ b/Process Workflows/Stock_Reporting_processing/StockReportMasterFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad2\Desktop\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\Stock_Reporting_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\Stock_Reporting_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -44,85 +44,151 @@
     <t>MaterialCodeTo</t>
   </si>
   <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\</t>
+  </si>
+  <si>
+    <t>ExportFileName</t>
+  </si>
+  <si>
+    <t>export.XLSX</t>
+  </si>
+  <si>
+    <t>ExportSheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>Storage location</t>
+  </si>
+  <si>
+    <t>ColumnValue</t>
+  </si>
+  <si>
+    <t>MA01</t>
+  </si>
+  <si>
+    <t>ColumnRemoveRow1</t>
+  </si>
+  <si>
+    <t>Parent Material</t>
+  </si>
+  <si>
+    <t>ColumnRemoveRow2</t>
+  </si>
+  <si>
+    <t>Parent Material Desc</t>
+  </si>
+  <si>
+    <t>MaterialMasterFileName</t>
+  </si>
+  <si>
+    <t>6. Material Master.xlsx</t>
+  </si>
+  <si>
+    <t>MaterialMasterSheetName</t>
+  </si>
+  <si>
+    <t>StockSheetName</t>
+  </si>
+  <si>
+    <t>SAP_AppName</t>
+  </si>
+  <si>
+    <t>saplogon.exe</t>
+  </si>
+  <si>
+    <t>StockFileName</t>
+  </si>
+  <si>
+    <t>NAValue</t>
+  </si>
+  <si>
+    <t>OMS_StockReportFile</t>
+  </si>
+  <si>
+    <t>Data\OMSInputFiles\</t>
+  </si>
+  <si>
+    <t>Stock Report.xlsx</t>
+  </si>
+  <si>
+    <t>Plant_Code</t>
+  </si>
+  <si>
+    <t>OrderPlantCodeColumn</t>
+  </si>
+  <si>
     <t>Plant</t>
   </si>
   <si>
+    <t>StockPlantColumn</t>
+  </si>
+  <si>
+    <t>StockStoragelocationColumn</t>
+  </si>
+  <si>
+    <t>PlantCodeD3A7</t>
+  </si>
+  <si>
+    <t>D3A7</t>
+  </si>
+  <si>
+    <t>StorageLocationMA02</t>
+  </si>
+  <si>
+    <t>MA02</t>
+  </si>
+  <si>
+    <t>StorageLocationMA01</t>
+  </si>
+  <si>
     <t>D354</t>
   </si>
   <si>
-    <t>InputFilePath</t>
-  </si>
-  <si>
-    <t>Data\Input\</t>
-  </si>
-  <si>
-    <t>ExportFileName</t>
-  </si>
-  <si>
-    <t>export.XLSX</t>
-  </si>
-  <si>
-    <t>ExportSheetName</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
-  </si>
-  <si>
-    <t>ColumnName</t>
-  </si>
-  <si>
-    <t>Storage location</t>
-  </si>
-  <si>
-    <t>ColumnValue</t>
-  </si>
-  <si>
-    <t>MA01</t>
-  </si>
-  <si>
-    <t>ColumnRemoveRow1</t>
-  </si>
-  <si>
-    <t>Parent Material</t>
-  </si>
-  <si>
-    <t>ColumnRemoveRow2</t>
-  </si>
-  <si>
-    <t>Parent Material Desc</t>
-  </si>
-  <si>
-    <t>MaterialMasterFileName</t>
-  </si>
-  <si>
-    <t>6. Material Master.xlsx</t>
-  </si>
-  <si>
-    <t>MaterialMasterSheetName</t>
-  </si>
-  <si>
-    <t>StockSheetName</t>
-  </si>
-  <si>
-    <t>SAP_AppName</t>
-  </si>
-  <si>
-    <t>saplogon.exe</t>
-  </si>
-  <si>
-    <t>StockFileName</t>
-  </si>
-  <si>
-    <t>NAValue</t>
-  </si>
-  <si>
-    <t>OMS_StockReportFile</t>
-  </si>
-  <si>
-    <t>Data\OMSInputFiles\</t>
-  </si>
-  <si>
-    <t>Stock Report.xlsx</t>
+    <t>PlantCodeD354</t>
+  </si>
+  <si>
+    <t>PlantCodeD236</t>
+  </si>
+  <si>
+    <t>D236</t>
+  </si>
+  <si>
+    <t>AG01</t>
+  </si>
+  <si>
+    <t>StorageLocationAG01</t>
+  </si>
+  <si>
+    <t>D242</t>
+  </si>
+  <si>
+    <t>D245</t>
+  </si>
+  <si>
+    <t>PlantCodeD242</t>
+  </si>
+  <si>
+    <t>PlantCodeD245</t>
+  </si>
+  <si>
+    <t>OrderFileName</t>
+  </si>
+  <si>
+    <t>Order page.xlsx</t>
+  </si>
+  <si>
+    <t>OrderSheetName</t>
+  </si>
+  <si>
+    <t>Order page</t>
   </si>
 </sst>
 </file>
@@ -166,9 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +651,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,39 +667,135 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>-2146826246</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18">
-        <v>-2146826246</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
